--- a/biology/Botanique/Ginger_Gold/Ginger_Gold.xlsx
+++ b/biology/Botanique/Ginger_Gold/Ginger_Gold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ginger Gold est la marque commerciale d'un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description générale est publiée sur le site du Ministère de l'Agriculture de l'Ontario[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description générale est publiée sur le site du Ministère de l'Agriculture de l'Ontario.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Variété diploïde.
 Groupe de floraison: C.</t>
@@ -573,11 +589,13 @@
           <t>Résistance et susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tavelure: susceptible
 Feu bactérien: susceptible
-Oïdium: très susceptible[2].</t>
+Oïdium: très susceptible.</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maturité: entre le 25 juillet et le 15 août[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maturité: entre le 25 juillet et le 15 août
 Variété appropriée à l'agriculture intensive avec traitements fongiques réguliers et éclaircissement chimique.
 À exclure des jardins familiaux où les traitements chimiques ne sont pas systématiques.
 </t>
